--- a/FI_index/province_insights.xlsx
+++ b/FI_index/province_insights.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/392be3fc0e9302e6/Documents/SIVIOgit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/392be3fc0e9302e6/Documents/SIVIOgit/FI_index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{A86504E9-5082-47E4-BA27-C9984C2F50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DF1EFD-2825-4566-97EB-4D348E12C3E5}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{A86504E9-5082-47E4-BA27-C9984C2F50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621F770B-9455-4FC1-95FA-2408E8DE63FC}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14380" windowHeight="11960" xr2:uid="{58101963-3A39-4ACB-BE6E-6AC2FBF1D3B4}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{58101963-3A39-4ACB-BE6E-6AC2FBF1D3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -186,6 +187,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A6557B-305E-4DBA-9919-7F6EA977465B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="364067"/>
+          <a:ext cx="3090333" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The text in the inisights column is taken from the word document </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"Provincial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Observations" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>which takes the summary from the excel file</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"____"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>There is no automation in this</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> process as the text has to be copied over but easier to edit text in word than excel... but excel works better for Power BI</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,11 +598,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64557A7B-E495-4EB7-BB64-C7BC57CB9450}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.76171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.64453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
@@ -584,4 +699,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F586EC-F00B-48D9-87A2-34BE6096EC47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/FI_index/province_insights.xlsx
+++ b/FI_index/province_insights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/392be3fc0e9302e6/Documents/SIVIOgit/FI_index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{A86504E9-5082-47E4-BA27-C9984C2F50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621F770B-9455-4FC1-95FA-2408E8DE63FC}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{A86504E9-5082-47E4-BA27-C9984C2F50D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF490F54-30DD-4CF6-BC59-B4A255812C0D}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{58101963-3A39-4ACB-BE6E-6AC2FBF1D3B4}"/>
+    <workbookView xWindow="12353" yWindow="60" windowWidth="12627" windowHeight="9853" xr2:uid="{58101963-3A39-4ACB-BE6E-6AC2FBF1D3B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,16 +73,19 @@
     <t>insights</t>
   </si>
   <si>
-    <t>In Bulawayo, only 35% of enterprises have a bank account but 75% have a mobile money business account. Of those who have a mobile money account, 23% were aware of the insurance products offered while none knew about any loans offered on the platform. Within Bulawayo, 30% of enterprises identified a lack of knowledge as a barrier to the access and use of financial products.</t>
-  </si>
-  <si>
-    <t>In Harare, 70% of MSMEs have a mobile money account and 44% have a bank account. 35% of businesses identify inflation as a barrier to access and use of financial products and services. 30% of the enterprises use formal sources for business advice and only 18% use formal sources for their ongoing business operations.</t>
-  </si>
-  <si>
-    <t>65% of enterprises have mobile money accounts while only 38% have a bank account. 33% of respondents identified a lack of finance and affordability as a barrier to access financial products and yet 52% of enterprises do have access to a savings facility.  Of the 19% of enterprises that have business insurance products, 40% of them offer staff insurance.</t>
-  </si>
-  <si>
-    <t>Only 40% of enterprises have a mobile money account while fewer enterprises (27%) have a bank account. 19% of enterprises identified a lack of finance for the reason why they did acquire financial products, while 18% identified a lack of knowledge of product and/or process, and 16% identified that they were not it legal standing. Of the 46% registered businesses, 33% of them are not registered with ZIMRA.</t>
+    <t>In Masvingo, only 18% of enterprises have bank accounts and 37% have mobile money accounts. However, 82% do have access to a savings facility. 32% of enterprises selected inflation as a barrier to acquiring formal financial products and only 2% of those who need foreign currency are registered on the SME foreign exchange auction.</t>
+  </si>
+  <si>
+    <t>In Bulawayo, only 35% of enterprises have a bank account but 75% have a mobile money account for their business. Of those who have a mobile money account, 23% were aware of the insurance products offered while none knew about any loans offered on the platform. Within Bulawayo, 30% of enterprises identified a lack of knowledge as a barrier to the access and use of financial products.</t>
+  </si>
+  <si>
+    <t>In Harare, 70% of MSMEs have a mobile money account and 44% have a bank account. 35% of businesses identify inflation as a barrier to access and use of financial products and services. 30% of the enterprises use formal sources for business advice and only 18% use formal sources to fund their ongoing business operations.</t>
+  </si>
+  <si>
+    <t>65% of MSMEs have mobile money accounts while only 38% have a bank account. 33% of respondents identified a lack of finance and affordability as a barrier to access financial products. 52% of enterprises do have access to a savings facility.  Of the 19% of enterprises that have business insurance products, 40% of them offer staff insurance.</t>
+  </si>
+  <si>
+    <t>Only 41% of MSMEs have a mobile money account while fewer enterprises (28%) have a bank account. 19% of enterprises identified a lack of finance for the reason why they did acquire financial products, while 18% identified a lack of knowledge of product and/or process, and 16% identified that they were not in legal standing. Of the 46% registered businesses, 29% of them were not registered with ZIMRA.</t>
   </si>
   <si>
     <r>
@@ -107,23 +110,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> highest across the province) and 43% have a bank account. Of those who need access to foreign currency, 30% of enterprises are registered on the SME auction despite none of them making any successful bids. 37% of the enterprises identified inflation as a barrier to acquire formal financial products.</t>
+      <t xml:space="preserve"> highest across the provinces) and 43% have a bank account. Of those who need access to foreign currency, 30% of enterprises are registered on the SME auction yet none of them have made a successful bid. 37% of MSMEs identified inflation as a barrier to acquire formal financial products.</t>
     </r>
   </si>
   <si>
-    <t>34% of the enterprises had a bank account while 60% had a mobile money business account. 20% of the enterprises that were unable to acquire financial products acknowledged that they did not know how to access products such as bank accounts, pensions, and loans. However, Mashonaland West had the highest percentage (31%) of enterprises that has business insurance products and 53% used formal sources for their ongoing business operations.</t>
-  </si>
-  <si>
-    <t>In Masvingo, only 18% of enterprises have bank accounts and 37% have mobile money accounts. However, 82% do have access to a savings facility. 32% of enterprises selected inflation as a barrier to acquiring formal financial products and only 2% of those who need foreign currency are registered on the SME foreign exchange auction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matabeleland North had the largest ownership of mobile money accounts (84% of enterprises) while only 38% had a bank account. None of the MSMEs who need foreign currency are registered on the SME foreign exchange auction, while only 17% have access to a savings facility. 39% of enterprises identified that access to finance and affordability were barriers to acquiring formal financial products. </t>
-  </si>
-  <si>
-    <t>Matabeleland South had the highest percentage of enterprises with bank accounts (57%) with only 40% of enterprises having a mobile money business account. Of those who have a bank account, 16% had applied for a commercial in the past (highest across the ten provinces). However, only 17% use formal sources to fund their ongoing business operations. Inflation is a barrier which prevents 19% of enterprises from acquiring formal products and 13% do not trust the financial systems and products.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midlands has the lowest ownership of mobile money accounts (17%) and only 25% have a bank account. Unlike Masvingo, only 38% have access to a savings facility. 28% of enterprises who do have financial products admitted that they did not know about the product or the process in which to acquire or register. Of the 10% of enterprises with business insurance, 48% insure their staff while only 26% insure their products. </t>
+    <t>34% of the enterprises had a bank account while 60% had a mobile money business account. 20% of the MSMEs stated that they did not know how to access products such as bank accounts, pensions, and loans. Despite this, Mashonaland West had the highest percentage (31%) of enterprises that has business insurance products and 53% used formal sources for their ongoing business operations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matabeleland North had the largest ownership of mobile money accounts (85% of enterprises) while only 37% had a bank account. None of the MSMEs who need foreign currency are registered on the SME foreign exchange auction, while only 16% have access to a savings facility. 39% of enterprises identified that access to finance and affordability were barriers to acquiring formal financial products. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matabeleland South had the highest percentage of enterprises with bank accounts (57%) with only 40% of enterprises having a mobile money business account. Of those who have a bank account, 16% had applied for a commercial in the past. However, only 17% use formal sources to fund their ongoing business operations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midlands has the lowest ownership of mobile money accounts (17%) and only 25% have a bank account. Unlike Masvingo, only 38% have access to a savings facility. 28% of enterprises who do not have financial products admitted that they did not know about the product or the process in which to acquire or register. </t>
   </si>
 </sst>
 </file>
@@ -270,14 +270,9 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>which takes the summary from the excel file</a:t>
+            <a:t>which takes the summary from the csv dimension files (eg: barriers.csv)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>"____"</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
@@ -598,14 +593,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64557A7B-E495-4EB7-BB64-C7BC57CB9450}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
@@ -621,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -629,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -637,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -645,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.350000000000001" x14ac:dyDescent="0.5">
@@ -653,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -661,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -669,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -698,6 +693,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -705,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F586EC-F00B-48D9-87A2-34BE6096EC47}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
